--- a/resources/data-csv/最美&最受歡迎女youtuber-整理版.xlsx
+++ b/resources/data-csv/最美&最受歡迎女youtuber-整理版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenlich/Downloads/youtuber-pk/src/data-csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenlich/Downloads/youtuber-pk/resources/data-csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AFA77D-2CA9-9945-8B66-C071CA30220A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53A1F3B-F4BD-2F4F-B89D-E73915D1B61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="最受歡迎" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="244">
   <si>
     <t>TheKellyYang</t>
   </si>
@@ -871,6 +871,84 @@
   </si>
   <si>
     <t>241182651_167679725439806_1419996355827098072_n</t>
+  </si>
+  <si>
+    <t>161436005_305726720975862_3227068468959228033_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCscRCnRkxjTfaJSqNOH7YBQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCyD3eaCai2yyWZEuczgZ-fw</t>
+  </si>
+  <si>
+    <t>231937424_189684746548630_7264873662462821473_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCbcFvHTFnj2cUiJXY6yUW9A</t>
+  </si>
+  <si>
+    <t>244711285_421984829529391_8074555302005882812_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/CindyH32</t>
+  </si>
+  <si>
+    <t>156216828_2825318357728242_1433282894302331460_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCjZCm3uuhkCvTYE9txucVcw</t>
+  </si>
+  <si>
+    <t>160242799_3746854308697543_3564161034818529210_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCAKJ0tmI_RMXqTgxL_OMfIg</t>
+  </si>
+  <si>
+    <t>253034702_1052538712236585_2442301185572619721_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/%E7%99%BD%E7%99%A1%E5%85%AC%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>142934226_722980681925830_8961268986758795597_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/%E5%A3%B9%E5%8A%A0%E5%A3%B9</t>
+  </si>
+  <si>
+    <t>238767860_1392292497819165_7978461905279517538_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/blaire228</t>
+  </si>
+  <si>
+    <t>176125038_1737884546371643_4681262433306613349_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/NANACIAOCIAO</t>
+  </si>
+  <si>
+    <t>243366623_112603917843487_1885795655044618933_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC2sk23-OLSaoT977mmVOPAw</t>
+  </si>
+  <si>
+    <t>129763366_144913980731427_7278780177754146576_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/AstorLiu</t>
+  </si>
+  <si>
+    <t>253852117_319775702869240_1608143372252872981_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCGpNjY0Xq2GJLXh4OOX1LOA</t>
+  </si>
+  <si>
+    <t>240453318_523924435363425_5985235544373995888_n</t>
   </si>
 </sst>
 </file>
@@ -7833,8 +7911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B925B9CE-F33D-7B44-856A-707AF1EDDBD7}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8038,65 +8116,143 @@
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="B18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="B20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="B26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="B28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:3">

--- a/resources/data-csv/最美&最受歡迎女youtuber-整理版.xlsx
+++ b/resources/data-csv/最美&最受歡迎女youtuber-整理版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenlich/Downloads/youtuber-pk/resources/data-csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53A1F3B-F4BD-2F4F-B89D-E73915D1B61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD153CE-229A-2F47-8084-563A5E8B4DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="246">
   <si>
     <t>TheKellyYang</t>
   </si>
@@ -949,6 +949,12 @@
   </si>
   <si>
     <t>240453318_523924435363425_5985235544373995888_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/JuliaLion%E5%92%AA%E5%A6%83%E5%A8%98%E5%A8%98</t>
+  </si>
+  <si>
+    <t>240315639_579186969927567_7881360356240474008_n</t>
   </si>
 </sst>
 </file>
@@ -7911,8 +7917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B925B9CE-F33D-7B44-856A-707AF1EDDBD7}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8259,6 +8265,12 @@
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="B31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="5" t="s">

--- a/resources/data-csv/最美&最受歡迎女youtuber-整理版.xlsx
+++ b/resources/data-csv/最美&最受歡迎女youtuber-整理版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenlich/Downloads/youtuber-pk/resources/data-csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD153CE-229A-2F47-8084-563A5E8B4DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A1509F-D144-494F-88B4-4C15B3E2010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="最受歡迎" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="463">
   <si>
     <t>TheKellyYang</t>
   </si>
@@ -955,6 +955,657 @@
   </si>
   <si>
     <t>240315639_579186969927567_7881360356240474008_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCjL1yWauBeI6WoQNVLyxwqQ</t>
+  </si>
+  <si>
+    <t>269677015_168335075492190_8783027942267342510_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJM_OTvzTrkZbYEq4GKVuOQ</t>
+  </si>
+  <si>
+    <t>262119837_607783707094636_6539563544574635097_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCNT8D7CM00RLnhHDmMtpSOA</t>
+  </si>
+  <si>
+    <t>250401186_289234623061373_277761650127891991_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCX-yj8EcJpokdzwT9zcO6AA</t>
+  </si>
+  <si>
+    <t>243552674_264506109020419_9129885961182565600_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCycdIv0INFmRwGf1UgluUmw</t>
+  </si>
+  <si>
+    <t>197708410_914182712694675_2277317666745780043_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/msnpeijie</t>
+  </si>
+  <si>
+    <t>269754339_115508140820505_2690226379408319938_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCtTg9DVdsK6ECR8qLt7qbJA</t>
+  </si>
+  <si>
+    <t>270070934_283612103732284_7187439324359220233_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCY37q3ZpBN5WUAujslXWflw</t>
+  </si>
+  <si>
+    <t>116019763_168148554763218_1266222834883519247_n</t>
+  </si>
+  <si>
+    <t>269796809_767463800876245_5269722170217861648_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMdbDlc8K1u_M0Qer5L98ng</t>
+  </si>
+  <si>
+    <t>162439522_194033492138220_4404709524418670029_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCEk2wuevkGZFQ5BYrGgcFYw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCxls4ftUSbEcrDR1zQWIwfA</t>
+  </si>
+  <si>
+    <t>175798837_3885561074898272_3622936897003894172_n</t>
+  </si>
+  <si>
+    <t>120100472_3262319053846240_1823442841651502646_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCOz7W0VH--2WlqAE_3jtL4w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC3rrCl8CcCFDCI9Ti2rHsnw</t>
+  </si>
+  <si>
+    <t>262281585_433626951450029_8937467833296208387_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCflli65jykYa6D0AU8JSuGA</t>
+  </si>
+  <si>
+    <t>267852054_591965905369001_2318361256679943312_n</t>
+  </si>
+  <si>
+    <t>251703884_195033002778679_6404976108276400383_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCmNsrLJkobeWwrtFD_zEEfQ</t>
+  </si>
+  <si>
+    <t>245232678_570999974177702_8828181243860135255_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCpgt8SEyAy5tbr9BzVK8Lsg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcBLVExMJRTwgK_Z5TLlUCA</t>
+  </si>
+  <si>
+    <t>242803755_389303699429547_4915244611042830321_n</t>
+  </si>
+  <si>
+    <t>264943216_417080733394531_5210039433639296294_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCL2W42oA1TPsnsWn1py1m3w</t>
+  </si>
+  <si>
+    <t>263752988_614943776311599_5470902758894202239_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCuggN8RzbtpxFSd6LHCeXew</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCec_7OC0VlWA2i9CJz1UtyQ</t>
+  </si>
+  <si>
+    <t>242955994_922221968673511_6292337134897688370_n</t>
+  </si>
+  <si>
+    <t>261236806_568544397765118_8735150062785211877_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC6pJuG-lKOr6O5Whd0jK_dw</t>
+  </si>
+  <si>
+    <t>262660985_1840405112813759_4562879132034623278_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCuzIc0_S6xqT7ORRuuzSWBw</t>
+  </si>
+  <si>
+    <t>about_stylist_sil</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCGWhmYfsCrWI5maLqlKKAmQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/%E5%A4%8F%E5%9F%B9%E5%9F%B9</t>
+  </si>
+  <si>
+    <t>夏培培</t>
+  </si>
+  <si>
+    <t>medium_1b69e31864178118</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCf1108pdZgJbabjX2x47m5g</t>
+  </si>
+  <si>
+    <t>241237675_1483930008635496_4960625599831535140_n</t>
+  </si>
+  <si>
+    <t>269831790_281468757346278_7332688002559916176_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCPO1xxOvoWZ6pCORmpwIx8g</t>
+  </si>
+  <si>
+    <t>262572446_1233186443823413_1364976631684464419_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC0NFqwYXVztcVxWqYcfQ4SQ</t>
+  </si>
+  <si>
+    <t>241940440_2949082702012933_3137124568695377340_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCWUBEPN90XWcI34yuw5Hrvg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMUnInmOkrWN4gof9KlhNmQ</t>
+  </si>
+  <si>
+    <t>gPhJRMb</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCFycVZXj9fRWB_OZfFKe2PA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCbIJeyl_va8MG2xx0q4Uobg</t>
+  </si>
+  <si>
+    <t>266722172_133216639104616_1403319764981682709_n</t>
+  </si>
+  <si>
+    <t>121642614_1733011946873611_3105636106618293535_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC_vkgr-A41Iz0H9SoCPz0KA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCVgSIphlguVXSP_RzQtyFbA</t>
+  </si>
+  <si>
+    <t>244524717_1090889338114526_7758884377742885342_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC6NOmGMdA1uF7b9gYEiBHlw</t>
+  </si>
+  <si>
+    <t>269652797_359448122655312_7577376365888870721_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCXHWdSkXPv1MTvyDavhp67A/videos</t>
+  </si>
+  <si>
+    <t>241798285_190449126386265_1959622692993226123_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCuUBnCwEd7aExfO1M7jH6SQ</t>
+  </si>
+  <si>
+    <t>about_stylist_shan</t>
+  </si>
+  <si>
+    <t>242669465_221700599986828_2931260945617744608_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCgbscTZz8BHUUCtuXZJLcaA</t>
+  </si>
+  <si>
+    <t>235334604_837248873622103_5766932367630827053_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCkmdNARD7bwvj2xlMotWoyg</t>
+  </si>
+  <si>
+    <t>149503791_275974577287574_6772400766072106336_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCRrImi1CRog9dttI2nM8nPg</t>
+  </si>
+  <si>
+    <t>252105593_611627229871510_8184581659204112025_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCTOA5N3AbUAVSWrSjlK5A2g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/MegansTalk</t>
+  </si>
+  <si>
+    <t>241461412_588944245680807_1018805730634985061_n</t>
+  </si>
+  <si>
+    <t>245791637_1333909893695770_431694105419377178_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCWEbr-dBJuI8VmyOXNFe-Pw</t>
+  </si>
+  <si>
+    <t>263600196_1126371214834057_2847881515905444720_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCbxTGznSWqzf8QhJKYjniXg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCiF_NMoQxsL4wzH8kmn6UjA</t>
+  </si>
+  <si>
+    <t>243127534_1750067448509725_5347680333639939832_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCUTaEQRpN7xdfUFs0XzkaOQ</t>
+  </si>
+  <si>
+    <t>269819530_292810419315622_5294245496273154867_n</t>
+  </si>
+  <si>
+    <t>245617349_418499859632462_4069747915792883104_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCiewBSUlxrhoyn6oTNt0ilw</t>
+  </si>
+  <si>
+    <t>253359887_3007855332876140_6472239080512031665_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCTT5gtQU5rX8sUQnZaBqiVw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCvfBpRKkNwhQottW9FDE--g</t>
+  </si>
+  <si>
+    <t>158536220_2880707882199242_209169230175350932_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UClJlauaxRnvVQI63fRmHpMA</t>
+  </si>
+  <si>
+    <t>68764422_2059022231060601_7619784936751808305_n</t>
+  </si>
+  <si>
+    <t>187669738_1055441534860905_6136502009004846202_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCAAngceWfYJBqvgm5FZ8g2A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCL4KZXY5dvn3mf2H8NmJt0g</t>
+  </si>
+  <si>
+    <t>247717811_293509382780418_6306558872565639579_n</t>
+  </si>
+  <si>
+    <t>269946332_343990587173382_2359745503330490729_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCUCme21hwT5RYit4w8KF9kg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC59_iHZ74KTLwcrBbuo6NLg</t>
+  </si>
+  <si>
+    <t>246448841_567124707904925_5582699394131555128_n</t>
+  </si>
+  <si>
+    <t>120797110_641635253214422_217238978091915648_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCGPU0Z-UjKI2S03npo1QpcA</t>
+  </si>
+  <si>
+    <t>269927139_1611037462572274_6311341875934114043_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCCZS6YMggfiRV_U7NuiNNsg</t>
+  </si>
+  <si>
+    <t>254065454_578736146742692_6123921618478606135_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCCChiPobiglLjPs5tAU49zw</t>
+  </si>
+  <si>
+    <t>147382465_775304853338429_8605407998762886171_n</t>
+  </si>
+  <si>
+    <t>261229154_309883390984394_708406201295555751_n</t>
+  </si>
+  <si>
+    <t>246602025_300316951645251_7223153525769471592_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCg1OsxHcZQClRa2zUhsIbWw</t>
+  </si>
+  <si>
+    <t>269837692_1185058108568743_6816359289134705078_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCRG28JCnJwuZH06ETKTTZdA</t>
+  </si>
+  <si>
+    <t>262644618_897725594439204_5219806837790440295_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCkd7G0KUwJs7GIkI4XVoUPw</t>
+  </si>
+  <si>
+    <t>256766416_216437383828496_5918727916599606100_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UClVJCkItoSHxRLmVVzmjoEA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCPQn3qT8xyTqckpMWmmt-Ww</t>
+  </si>
+  <si>
+    <t>269780639_1088029768617429_2433211621522939261_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCmxh4Abw-QxdEY8Nmw4kCKA</t>
+  </si>
+  <si>
+    <t>117801606_308327103786345_1948043244081435950_n</t>
+  </si>
+  <si>
+    <t>254933834_427738075678349_1662466142628132881_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC6rbLAbpqdqKRUICPTmOXiA</t>
+  </si>
+  <si>
+    <t>252384149_563527938095327_3095021010081421400_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCrpt0gh_PEC0gM6meRpkr2A</t>
+  </si>
+  <si>
+    <t>53176285_187666772203471_8220265945720309259_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/CoffeeTeaJane</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCZqsvi6uhFrbsJcAmcZudcQ</t>
+  </si>
+  <si>
+    <t>85158538_550594639138407_1295262522174096807_n</t>
+  </si>
+  <si>
+    <t>263802762_3030561023869459_8461032498059869960_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCxcTaNPKvaEhzJ5DZ_Tm4bg</t>
+  </si>
+  <si>
+    <t>132800716_2503652776598661_723920819014374328_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCmV89JP1Fx5jTAMYjmpJMQg</t>
+  </si>
+  <si>
+    <t>122735633_824618918287470_3836634000272561153_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCFZPaQsh452W4_WDItGh8sw</t>
+  </si>
+  <si>
+    <t>176234416_988165951588241_5619711525216813577_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCqxRJpX52Q0nxcHf7hqdJMA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCUJdsQghaciVvOmwz7kxqzA</t>
+  </si>
+  <si>
+    <t>128826622_145610360228938_6475440026883566252_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCZbrrJPhOtrngm4VqHEc6Cg</t>
+  </si>
+  <si>
+    <t>242828999_590900308619585_1224498950186371788_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCpptqZnFCm1MtjA4nNxFRPg</t>
+  </si>
+  <si>
+    <t>238242885_553571159098621_6499609860246149116_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMqpOVBX5EqZsF9dbiO6Xyg</t>
+  </si>
+  <si>
+    <t>264264220_963837131154862_4801350845936247083_n</t>
+  </si>
+  <si>
+    <t>254080931_170073498671034_1961157067206774342_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC295KNpQM8NnU8bLYvtdbHQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC0mQGaFnEkjbNlZ_66_YWiQ</t>
+  </si>
+  <si>
+    <t>269944879_636409054458547_4712863575973555115_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCjdKT9YPRlTGTAoTJxU1sdw</t>
+  </si>
+  <si>
+    <t>123301983_1699612803540168_8333916452461310929_n</t>
+  </si>
+  <si>
+    <t>121089678_2516037692021082_1760788113988572123_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCTqPBBnP2T57kmiPQ87986g</t>
+  </si>
+  <si>
+    <t>234826080_270760877743868_2814005474938485443_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCKuYX2obN2X3Jz7t19PYCMA</t>
+  </si>
+  <si>
+    <t>266757961_590980308677138_2515563825404397983_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC6Vnn0JYp-rskZzIjNdiZZg</t>
+  </si>
+  <si>
+    <t>140435516_237384921286688_3809916586708418319_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCtnZvO0p06_NF-cKRyI6QHA/videos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCafJ3hmXK3EmX_04SdbKVgg</t>
+  </si>
+  <si>
+    <t>182199967_171136981475312_8329184919185678007_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCXfcBqAgl0GdzuCcErGzkBQ</t>
+  </si>
+  <si>
+    <t>245363663_171325648522509_895794668605743631_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCVw4CvsOUuVJpFyW_VPnIBQ</t>
+  </si>
+  <si>
+    <t>264931793_1039396559965122_2245103198881464232_n</t>
+  </si>
+  <si>
+    <t>248395145_4453566818090115_4479168745049864126_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC9h2LluC3nQ5xTeIll0jjGA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC5g6Y9boEjLQEFCQckpNOnw</t>
+  </si>
+  <si>
+    <t>183901664_597545588304937_5154670717471298170_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCjybxgN2zwMM63x2X2r-qbg</t>
+  </si>
+  <si>
+    <t>247022960_266681602041646_6873140037180814579_n</t>
+  </si>
+  <si>
+    <t>140933708_1157897124613343_6350867463203084029_n</t>
+  </si>
+  <si>
+    <t>欸你這週要幹嘛-妹妹 Shine</t>
+  </si>
+  <si>
+    <t>171628740_811103973093071_7443547845867851403_n</t>
+  </si>
+  <si>
+    <t>269800484_214803980735180_3447564537299920062_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCjqAuT-giO8fjQqnNl1dDUw</t>
+  </si>
+  <si>
+    <t>122262902_1530191873831830_5329531688172641202_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCSPoiuVHWE4B0UnetB29vog</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC3-LoinXsAGLGTbX9c0l5Ew</t>
+  </si>
+  <si>
+    <t>244354215_5108605392499725_2998131767934031008_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC7_XntCvvrfmYjJUpNVGEHw</t>
+  </si>
+  <si>
+    <t>242350250_555589202326310_7341389062609360948_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCngJawDcrvMgdiyCe8y7dBg</t>
+  </si>
+  <si>
+    <t>258873696_1634431040234439_6780552262719344726_n</t>
+  </si>
+  <si>
+    <t>257199017_311992230755203_6974152459811445009_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC1DXMxHKDIs8zFuwTvXbNUw</t>
+  </si>
+  <si>
+    <t>240676002_568045664346109_2349463987036961496_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDGQy_7kFITT3VHbVNPnXKg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCFjqAKR9UVS28ucTNuVTexA</t>
+  </si>
+  <si>
+    <t>246778533_391436925793892_7301186819971520940_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/heincream0107</t>
+  </si>
+  <si>
+    <t>255447668_1268095976965719_6190370992843896379_n</t>
+  </si>
+  <si>
+    <t>121145661_348490539599208_4976395458535805884_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCKB4yglMissJu2TwbLGCq8A</t>
+  </si>
+  <si>
+    <t>238876865_251708253583265_1760525872826977660_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcxWIjBJL-zkZr4EM8rJM8A</t>
+  </si>
+  <si>
+    <t>168964852_271306681154883_5569485574753366037_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCBvQ4hOEoDdYeIBu0tE-7Sg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC8SL1DuWX8YpGe8Y781zq8A</t>
+  </si>
+  <si>
+    <t>259771086_598916094770548_6406103932737406664_n</t>
+  </si>
+  <si>
+    <t>245026509_137526485278585_5522571114085831704_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMy0L5Y-h0-s8t4XZs49gXw</t>
+  </si>
+  <si>
+    <t>263803243_1052832882182858_8880922609925768895_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/c/ClumsyCynthia%E9%BB%83%E5%8F%AF%E6%A8%82</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCCo41cmOu6fcku2O8J54bdA</t>
+  </si>
+  <si>
+    <t>244388583_574156990302278_6173839158522704592_n</t>
+  </si>
+  <si>
+    <t>NanaQ</t>
+  </si>
+  <si>
+    <t>267966144_299695385404067_1060786254479330760_n</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCQhuILEAErjrabn6-rJiKig</t>
+  </si>
+  <si>
+    <t>269995131_979989595926583_6384956930919439954_n</t>
+  </si>
+  <si>
+    <t>孟橙Esther</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCrgf-NbSopCrsIpW2e7P8Tg</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1057,6 +1708,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7915,10 +8567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B925B9CE-F33D-7B44-856A-707AF1EDDBD7}">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8276,565 +8928,1199 @@
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" t="s">
+        <v>271</v>
+      </c>
+      <c r="C44" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C45" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>293</v>
+      </c>
+      <c r="B55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" t="s">
+        <v>299</v>
+      </c>
+      <c r="C58" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" t="s">
+        <v>301</v>
+      </c>
+      <c r="C59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" t="s">
+        <v>311</v>
+      </c>
+      <c r="C64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" t="s">
+        <v>318</v>
+      </c>
+      <c r="C68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" t="s">
+        <v>324</v>
+      </c>
+      <c r="C71" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" t="s">
+        <v>335</v>
+      </c>
+      <c r="C76" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" t="s">
+        <v>336</v>
+      </c>
+      <c r="C77" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" t="s">
+        <v>341</v>
+      </c>
+      <c r="C79" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" t="s">
+        <v>343</v>
+      </c>
+      <c r="C80" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" t="s">
+        <v>344</v>
+      </c>
+      <c r="C81" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" t="s">
+        <v>347</v>
+      </c>
+      <c r="C82" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" t="s">
+        <v>348</v>
+      </c>
+      <c r="C83" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" t="s">
+        <v>351</v>
+      </c>
+      <c r="C84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" t="s">
+        <v>354</v>
+      </c>
+      <c r="C86" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" t="s">
+        <v>360</v>
+      </c>
+      <c r="C89" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" t="s">
+        <v>362</v>
+      </c>
+      <c r="C90" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" t="s">
+        <v>364</v>
+      </c>
+      <c r="C91" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" t="s">
+        <v>366</v>
+      </c>
+      <c r="C92" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" t="s">
+        <v>369</v>
+      </c>
+      <c r="C93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" t="s">
+        <v>369</v>
+      </c>
+      <c r="C94" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" t="s">
+        <v>371</v>
+      </c>
+      <c r="C95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" t="s">
+        <v>372</v>
+      </c>
+      <c r="C96" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" t="s">
+        <v>374</v>
+      </c>
+      <c r="C97" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" t="s">
+        <v>376</v>
+      </c>
+      <c r="C98" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" t="s">
+        <v>379</v>
+      </c>
+      <c r="C99" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>384</v>
+      </c>
+      <c r="C102" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>386</v>
+      </c>
+      <c r="C103" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>389</v>
+      </c>
+      <c r="C104" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>391</v>
+      </c>
+      <c r="C105" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>393</v>
+      </c>
+      <c r="C106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B107" t="s">
+        <v>395</v>
+      </c>
+      <c r="C107" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>396</v>
+      </c>
+      <c r="C108" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>401</v>
+      </c>
+      <c r="C110" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>402</v>
+      </c>
+      <c r="C111" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>404</v>
+      </c>
+      <c r="C112" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B113" t="s">
+        <v>406</v>
+      </c>
+      <c r="C113" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>408</v>
+      </c>
+      <c r="C114" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>411</v>
+      </c>
+      <c r="C115" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>413</v>
+      </c>
+      <c r="C116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>415</v>
+      </c>
+      <c r="C117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>416</v>
+      </c>
+      <c r="C118" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B119" t="s">
+        <v>419</v>
+      </c>
+      <c r="C119" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" t="s">
+        <v>421</v>
+      </c>
+      <c r="C120" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B121" t="s">
+        <v>422</v>
+      </c>
+      <c r="C121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>143</v>
+      </c>
+      <c r="B122" t="s">
+        <v>424</v>
+      </c>
+      <c r="C122" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="B123" t="s">
+        <v>425</v>
+      </c>
+      <c r="C123" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>145</v>
+      </c>
+      <c r="B124" t="s">
+        <v>427</v>
+      </c>
+      <c r="C124" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>146</v>
+      </c>
+      <c r="B125" t="s">
+        <v>430</v>
+      </c>
+      <c r="C125" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" t="s">
+        <v>432</v>
+      </c>
+      <c r="C126" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B127" t="s">
+        <v>434</v>
+      </c>
+      <c r="C127" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>149</v>
+      </c>
+      <c r="B128" t="s">
+        <v>435</v>
+      </c>
+      <c r="C128" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B129" t="s">
+        <v>437</v>
+      </c>
+      <c r="C129" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>151</v>
+      </c>
+      <c r="B130" t="s">
+        <v>440</v>
+      </c>
+      <c r="C130" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>152</v>
+      </c>
+      <c r="B131" t="s">
+        <v>442</v>
+      </c>
+      <c r="C131" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>153</v>
+      </c>
+      <c r="B132" t="s">
+        <v>443</v>
+      </c>
+      <c r="C132" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B133" t="s">
+        <v>445</v>
+      </c>
+      <c r="C133" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>155</v>
+      </c>
+      <c r="B134" t="s">
+        <v>447</v>
+      </c>
+      <c r="C134" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B135" t="s">
+        <v>450</v>
+      </c>
+      <c r="C135" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>157</v>
+      </c>
+      <c r="B136" t="s">
+        <v>451</v>
+      </c>
+      <c r="C136" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="B137" t="s">
+        <v>453</v>
+      </c>
+      <c r="C137" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="5" t="s">
         <v>159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>456</v>
+      </c>
+      <c r="C138" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B139" t="s">
+        <v>458</v>
+      </c>
+      <c r="C139" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>461</v>
+      </c>
+      <c r="B140" t="s">
+        <v>460</v>
+      </c>
+      <c r="C140" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
